--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-practitioner-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="332">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole</t>
+    <t>http://hl7.org/fhir/StructureDefinition/PractitionerRole|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -469,6 +469,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>PractitionerRole.meta.security</t>
   </si>
   <si>
@@ -634,7 +637,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -756,7 +759,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -772,7 +775,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -804,7 +807,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice|2.2.0-ballot</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -825,7 +828,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -840,7 +843,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -862,7 +865,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -881,7 +884,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1380,7 +1383,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1395,7 +1398,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2603,7 +2606,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2671,10 +2674,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2697,16 +2700,16 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2732,13 +2735,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2756,7 +2759,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2785,10 +2788,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2811,16 +2814,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2846,13 +2849,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2870,7 +2873,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2899,10 +2902,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2928,13 +2931,13 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2984,7 +2987,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3013,10 +3016,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3039,16 +3042,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3074,13 +3077,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3098,7 +3101,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3127,14 +3130,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3153,16 +3156,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3212,7 +3215,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3230,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3241,14 +3244,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3267,16 +3270,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3326,7 +3329,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3344,7 +3347,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3355,10 +3358,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3384,10 +3387,10 @@
         <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3436,7 +3439,7 @@
         <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3465,13 +3468,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3493,13 +3496,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3550,7 +3553,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3559,7 +3562,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>118</v>
@@ -3579,10 +3582,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3608,16 +3611,16 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3666,7 +3669,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3684,7 +3687,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3695,10 +3698,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3721,17 +3724,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3780,7 +3783,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3795,24 +3798,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3835,70 +3838,70 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -3913,24 +3916,24 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3953,17 +3956,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4012,7 +4015,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4027,24 +4030,24 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4067,13 +4070,13 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4124,7 +4127,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4142,7 +4145,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4153,10 +4156,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4179,13 +4182,13 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4236,7 +4239,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4254,7 +4257,7 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4291,19 +4294,19 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4328,11 +4331,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4350,7 +4353,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4365,13 +4368,13 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4379,10 +4382,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4405,13 +4408,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4438,11 +4441,11 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4460,7 +4463,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4475,13 +4478,13 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4515,13 +4518,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4572,7 +4575,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4590,21 +4593,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4627,13 +4630,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4684,7 +4687,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4699,10 +4702,10 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4713,10 +4716,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4739,17 +4742,17 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4798,7 +4801,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4816,7 +4819,7 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -4827,10 +4830,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4853,16 +4856,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4912,7 +4915,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -4930,7 +4933,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -4941,10 +4944,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5053,10 +5056,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5167,14 +5170,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5196,16 +5199,16 @@
         <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5254,7 +5257,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5272,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5283,10 +5286,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5309,13 +5312,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5342,13 +5345,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5366,7 +5369,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5384,7 +5387,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5395,10 +5398,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5421,13 +5424,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5478,7 +5481,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5496,7 +5499,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5507,10 +5510,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5533,16 +5536,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5592,7 +5595,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5613,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5621,10 +5624,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5647,16 +5650,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5706,7 +5709,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5727,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5735,10 +5738,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5761,13 +5764,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5818,7 +5821,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5836,7 +5839,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -5847,10 +5850,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5959,10 +5962,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6073,14 +6076,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6102,16 +6105,16 @@
         <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6160,7 +6163,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6178,7 +6181,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6189,10 +6192,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6218,10 +6221,10 @@
         <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6272,7 +6275,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>89</v>
@@ -6301,10 +6304,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6327,13 +6330,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6384,7 +6387,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6402,7 +6405,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6413,10 +6416,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6442,10 +6445,10 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6496,7 +6499,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6514,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6525,10 +6528,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6551,17 +6554,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6610,7 +6613,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
